--- a/threshold_ac/2011-2021_province_data.xlsx
+++ b/threshold_ac/2011-2021_province_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoxu/PycharmProjects/Academic_Tools/threshold_ac/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA5DB22-E1A1-594B-A40F-BD6ABFD1FEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -17,12 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="34">
   <si>
     <t>province</t>
-  </si>
-  <si>
-    <t>年份</t>
-  </si>
-  <si>
-    <t>城市区域人口数量</t>
   </si>
   <si>
     <t>上海市</t>
@@ -117,16 +117,24 @@
   <si>
     <t>黑龙江省</t>
   </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>urban_scale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -134,8 +142,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -181,17 +196,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,7 +252,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -263,6 +286,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -297,9 +321,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,27 +497,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>2011</v>
@@ -503,7 +530,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2012</v>
@@ -514,7 +541,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>2013</v>
@@ -525,7 +552,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>2014</v>
@@ -536,7 +563,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>2015</v>
@@ -547,7 +574,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>2016</v>
@@ -558,7 +585,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>2017</v>
@@ -569,7 +596,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>2018</v>
@@ -580,7 +607,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>2019</v>
@@ -591,7 +618,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>2020</v>
@@ -602,7 +629,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>2021</v>
@@ -613,7 +640,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>2011</v>
@@ -624,7 +651,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>2012</v>
@@ -635,7 +662,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>2013</v>
@@ -646,7 +673,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>2014</v>
@@ -657,7 +684,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -668,7 +695,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <v>2016</v>
@@ -679,7 +706,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19">
         <v>2017</v>
@@ -690,7 +717,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <v>2018</v>
@@ -701,7 +728,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>2019</v>
@@ -712,7 +739,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>2020</v>
@@ -723,7 +750,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>2021</v>
@@ -734,7 +761,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>2011</v>
@@ -745,7 +772,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>2012</v>
@@ -756,7 +783,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>2013</v>
@@ -767,7 +794,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>2014</v>
@@ -778,7 +805,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28">
         <v>2015</v>
@@ -789,7 +816,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29">
         <v>2016</v>
@@ -800,7 +827,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30">
         <v>2017</v>
@@ -811,7 +838,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31">
         <v>2018</v>
@@ -822,7 +849,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32">
         <v>2019</v>
@@ -833,7 +860,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -844,7 +871,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34">
         <v>2021</v>
@@ -855,7 +882,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>2011</v>
@@ -866,7 +893,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>2012</v>
@@ -877,7 +904,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37">
         <v>2013</v>
@@ -888,7 +915,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38">
         <v>2014</v>
@@ -899,7 +926,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39">
         <v>2015</v>
@@ -910,7 +937,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <v>2016</v>
@@ -921,7 +948,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41">
         <v>2017</v>
@@ -932,7 +959,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B42">
         <v>2018</v>
@@ -943,7 +970,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <v>2019</v>
@@ -954,7 +981,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <v>2020</v>
@@ -965,7 +992,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45">
         <v>2021</v>
@@ -976,7 +1003,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B46">
         <v>2011</v>
@@ -987,7 +1014,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B47">
         <v>2012</v>
@@ -998,7 +1025,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B48">
         <v>2013</v>
@@ -1009,7 +1036,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B49">
         <v>2014</v>
@@ -1020,7 +1047,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B50">
         <v>2015</v>
@@ -1031,7 +1058,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B51">
         <v>2016</v>
@@ -1042,7 +1069,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B52">
         <v>2017</v>
@@ -1053,7 +1080,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B53">
         <v>2018</v>
@@ -1064,7 +1091,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B54">
         <v>2019</v>
@@ -1075,7 +1102,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B55">
         <v>2020</v>
@@ -1086,7 +1113,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B56">
         <v>2021</v>
@@ -1097,7 +1124,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B57">
         <v>2011</v>
@@ -1108,7 +1135,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B58">
         <v>2012</v>
@@ -1119,7 +1146,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59">
         <v>2013</v>
@@ -1130,7 +1157,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B60">
         <v>2014</v>
@@ -1141,7 +1168,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B61">
         <v>2015</v>
@@ -1152,7 +1179,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>2016</v>
@@ -1163,7 +1190,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B63">
         <v>2017</v>
@@ -1174,7 +1201,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B64">
         <v>2018</v>
@@ -1185,7 +1212,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B65">
         <v>2019</v>
@@ -1196,7 +1223,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B66">
         <v>2020</v>
@@ -1207,7 +1234,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B67">
         <v>2021</v>
@@ -1218,7 +1245,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B68">
         <v>2011</v>
@@ -1229,7 +1256,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B69">
         <v>2012</v>
@@ -1240,7 +1267,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B70">
         <v>2013</v>
@@ -1251,7 +1278,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B71">
         <v>2014</v>
@@ -1262,7 +1289,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B72">
         <v>2015</v>
@@ -1273,7 +1300,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B73">
         <v>2016</v>
@@ -1284,7 +1311,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B74">
         <v>2017</v>
@@ -1295,7 +1322,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B75">
         <v>2018</v>
@@ -1306,7 +1333,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B76">
         <v>2019</v>
@@ -1317,7 +1344,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B77">
         <v>2020</v>
@@ -1328,7 +1355,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B78">
         <v>2021</v>
@@ -1339,7 +1366,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B79">
         <v>2011</v>
@@ -1350,7 +1377,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B80">
         <v>2012</v>
@@ -1361,7 +1388,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B81">
         <v>2013</v>
@@ -1372,7 +1399,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B82">
         <v>2014</v>
@@ -1383,7 +1410,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B83">
         <v>2015</v>
@@ -1394,7 +1421,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B84">
         <v>2016</v>
@@ -1405,7 +1432,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B85">
         <v>2017</v>
@@ -1416,7 +1443,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B86">
         <v>2018</v>
@@ -1427,7 +1454,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B87">
         <v>2019</v>
@@ -1438,7 +1465,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B88">
         <v>2020</v>
@@ -1449,7 +1476,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B89">
         <v>2021</v>
@@ -1460,7 +1487,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B90">
         <v>2011</v>
@@ -1471,7 +1498,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B91">
         <v>2012</v>
@@ -1482,7 +1509,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B92">
         <v>2013</v>
@@ -1493,7 +1520,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B93">
         <v>2014</v>
@@ -1504,7 +1531,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B94">
         <v>2015</v>
@@ -1515,7 +1542,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B95">
         <v>2016</v>
@@ -1526,7 +1553,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B96">
         <v>2017</v>
@@ -1537,7 +1564,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B97">
         <v>2018</v>
@@ -1548,7 +1575,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B98">
         <v>2019</v>
@@ -1559,7 +1586,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B99">
         <v>2020</v>
@@ -1570,7 +1597,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B100">
         <v>2021</v>
@@ -1581,7 +1608,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B101">
         <v>2011</v>
@@ -1592,7 +1619,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B102">
         <v>2012</v>
@@ -1603,7 +1630,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B103">
         <v>2013</v>
@@ -1614,7 +1641,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B104">
         <v>2014</v>
@@ -1625,7 +1652,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B105">
         <v>2015</v>
@@ -1636,7 +1663,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B106">
         <v>2016</v>
@@ -1647,7 +1674,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B107">
         <v>2017</v>
@@ -1658,7 +1685,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B108">
         <v>2018</v>
@@ -1669,7 +1696,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B109">
         <v>2019</v>
@@ -1680,7 +1707,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B110">
         <v>2020</v>
@@ -1691,7 +1718,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B111">
         <v>2021</v>
@@ -1702,7 +1729,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B112">
         <v>2011</v>
@@ -1713,7 +1740,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B113">
         <v>2012</v>
@@ -1724,7 +1751,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B114">
         <v>2013</v>
@@ -1735,7 +1762,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B115">
         <v>2014</v>
@@ -1746,7 +1773,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B116">
         <v>2015</v>
@@ -1757,7 +1784,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B117">
         <v>2016</v>
@@ -1768,7 +1795,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B118">
         <v>2017</v>
@@ -1779,7 +1806,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B119">
         <v>2018</v>
@@ -1790,7 +1817,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B120">
         <v>2019</v>
@@ -1801,7 +1828,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B121">
         <v>2020</v>
@@ -1812,7 +1839,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B122">
         <v>2021</v>
@@ -1823,7 +1850,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B123">
         <v>2011</v>
@@ -1834,7 +1861,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B124">
         <v>2012</v>
@@ -1845,7 +1872,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B125">
         <v>2013</v>
@@ -1856,7 +1883,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B126">
         <v>2014</v>
@@ -1867,7 +1894,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B127">
         <v>2015</v>
@@ -1878,7 +1905,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B128">
         <v>2016</v>
@@ -1889,7 +1916,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B129">
         <v>2017</v>
@@ -1900,7 +1927,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B130">
         <v>2018</v>
@@ -1911,7 +1938,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B131">
         <v>2019</v>
@@ -1922,7 +1949,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B132">
         <v>2020</v>
@@ -1933,7 +1960,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B133">
         <v>2021</v>
@@ -1944,7 +1971,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B134">
         <v>2011</v>
@@ -1955,7 +1982,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B135">
         <v>2012</v>
@@ -1966,7 +1993,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B136">
         <v>2013</v>
@@ -1977,7 +2004,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B137">
         <v>2014</v>
@@ -1988,7 +2015,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B138">
         <v>2015</v>
@@ -1999,7 +2026,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B139">
         <v>2016</v>
@@ -2010,7 +2037,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B140">
         <v>2017</v>
@@ -2021,7 +2048,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B141">
         <v>2018</v>
@@ -2032,7 +2059,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B142">
         <v>2019</v>
@@ -2043,7 +2070,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B143">
         <v>2020</v>
@@ -2054,7 +2081,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B144">
         <v>2021</v>
@@ -2065,7 +2092,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B145">
         <v>2011</v>
@@ -2076,7 +2103,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B146">
         <v>2012</v>
@@ -2087,7 +2114,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B147">
         <v>2013</v>
@@ -2098,7 +2125,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B148">
         <v>2014</v>
@@ -2109,7 +2136,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B149">
         <v>2015</v>
@@ -2120,7 +2147,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B150">
         <v>2016</v>
@@ -2131,7 +2158,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B151">
         <v>2017</v>
@@ -2142,7 +2169,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B152">
         <v>2018</v>
@@ -2153,7 +2180,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B153">
         <v>2019</v>
@@ -2164,7 +2191,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B154">
         <v>2020</v>
@@ -2175,7 +2202,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B155">
         <v>2021</v>
@@ -2186,7 +2213,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B156">
         <v>2011</v>
@@ -2197,7 +2224,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B157">
         <v>2012</v>
@@ -2208,7 +2235,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B158">
         <v>2013</v>
@@ -2219,7 +2246,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B159">
         <v>2014</v>
@@ -2230,7 +2257,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B160">
         <v>2015</v>
@@ -2241,7 +2268,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B161">
         <v>2016</v>
@@ -2252,7 +2279,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B162">
         <v>2017</v>
@@ -2263,7 +2290,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B163">
         <v>2018</v>
@@ -2274,7 +2301,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B164">
         <v>2019</v>
@@ -2285,7 +2312,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B165">
         <v>2020</v>
@@ -2296,7 +2323,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B166">
         <v>2021</v>
@@ -2307,7 +2334,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B167">
         <v>2011</v>
@@ -2318,7 +2345,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B168">
         <v>2012</v>
@@ -2329,7 +2356,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B169">
         <v>2013</v>
@@ -2340,7 +2367,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B170">
         <v>2014</v>
@@ -2351,7 +2378,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B171">
         <v>2015</v>
@@ -2362,7 +2389,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B172">
         <v>2016</v>
@@ -2373,7 +2400,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B173">
         <v>2017</v>
@@ -2384,7 +2411,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B174">
         <v>2018</v>
@@ -2395,7 +2422,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B175">
         <v>2019</v>
@@ -2406,7 +2433,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B176">
         <v>2020</v>
@@ -2417,7 +2444,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B177">
         <v>2021</v>
@@ -2428,7 +2455,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B178">
         <v>2011</v>
@@ -2439,7 +2466,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B179">
         <v>2012</v>
@@ -2450,7 +2477,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B180">
         <v>2013</v>
@@ -2461,7 +2488,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B181">
         <v>2014</v>
@@ -2472,7 +2499,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B182">
         <v>2015</v>
@@ -2483,7 +2510,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B183">
         <v>2016</v>
@@ -2494,7 +2521,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B184">
         <v>2017</v>
@@ -2505,7 +2532,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B185">
         <v>2018</v>
@@ -2516,7 +2543,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B186">
         <v>2019</v>
@@ -2527,7 +2554,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B187">
         <v>2020</v>
@@ -2538,7 +2565,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B188">
         <v>2021</v>
@@ -2549,7 +2576,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B189">
         <v>2011</v>
@@ -2560,7 +2587,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B190">
         <v>2012</v>
@@ -2571,7 +2598,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B191">
         <v>2013</v>
@@ -2582,7 +2609,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B192">
         <v>2014</v>
@@ -2593,7 +2620,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B193">
         <v>2015</v>
@@ -2604,7 +2631,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B194">
         <v>2016</v>
@@ -2615,7 +2642,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B195">
         <v>2017</v>
@@ -2626,7 +2653,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B196">
         <v>2018</v>
@@ -2637,7 +2664,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B197">
         <v>2019</v>
@@ -2648,7 +2675,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B198">
         <v>2020</v>
@@ -2659,7 +2686,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B199">
         <v>2021</v>
@@ -2670,7 +2697,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B200">
         <v>2011</v>
@@ -2681,7 +2708,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B201">
         <v>2012</v>
@@ -2692,7 +2719,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B202">
         <v>2013</v>
@@ -2703,7 +2730,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B203">
         <v>2014</v>
@@ -2714,7 +2741,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B204">
         <v>2015</v>
@@ -2725,7 +2752,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B205">
         <v>2016</v>
@@ -2736,7 +2763,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B206">
         <v>2017</v>
@@ -2747,7 +2774,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B207">
         <v>2018</v>
@@ -2758,7 +2785,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B208">
         <v>2019</v>
@@ -2769,7 +2796,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B209">
         <v>2020</v>
@@ -2780,7 +2807,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B210">
         <v>2021</v>
@@ -2791,7 +2818,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B211">
         <v>2011</v>
@@ -2802,7 +2829,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B212">
         <v>2012</v>
@@ -2813,7 +2840,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B213">
         <v>2013</v>
@@ -2824,7 +2851,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B214">
         <v>2014</v>
@@ -2835,7 +2862,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B215">
         <v>2015</v>
@@ -2846,7 +2873,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B216">
         <v>2016</v>
@@ -2857,7 +2884,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B217">
         <v>2017</v>
@@ -2868,7 +2895,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B218">
         <v>2018</v>
@@ -2879,7 +2906,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B219">
         <v>2019</v>
@@ -2890,7 +2917,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B220">
         <v>2020</v>
@@ -2901,7 +2928,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B221">
         <v>2021</v>
@@ -2912,7 +2939,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B222">
         <v>2011</v>
@@ -2923,7 +2950,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B223">
         <v>2012</v>
@@ -2934,7 +2961,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B224">
         <v>2013</v>
@@ -2945,7 +2972,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B225">
         <v>2014</v>
@@ -2956,7 +2983,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B226">
         <v>2015</v>
@@ -2967,7 +2994,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B227">
         <v>2016</v>
@@ -2978,7 +3005,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B228">
         <v>2017</v>
@@ -2989,7 +3016,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B229">
         <v>2018</v>
@@ -3000,7 +3027,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B230">
         <v>2019</v>
@@ -3011,7 +3038,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B231">
         <v>2020</v>
@@ -3022,7 +3049,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B232">
         <v>2021</v>
@@ -3033,7 +3060,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B233">
         <v>2011</v>
@@ -3044,7 +3071,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B234">
         <v>2012</v>
@@ -3055,7 +3082,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B235">
         <v>2013</v>
@@ -3066,7 +3093,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B236">
         <v>2014</v>
@@ -3077,7 +3104,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B237">
         <v>2015</v>
@@ -3088,7 +3115,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B238">
         <v>2016</v>
@@ -3099,7 +3126,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B239">
         <v>2017</v>
@@ -3110,7 +3137,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B240">
         <v>2018</v>
@@ -3121,7 +3148,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B241">
         <v>2019</v>
@@ -3132,7 +3159,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B242">
         <v>2020</v>
@@ -3143,7 +3170,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B243">
         <v>2021</v>
@@ -3154,7 +3181,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B244">
         <v>2011</v>
@@ -3165,7 +3192,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B245">
         <v>2012</v>
@@ -3176,7 +3203,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B246">
         <v>2013</v>
@@ -3187,7 +3214,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B247">
         <v>2014</v>
@@ -3198,7 +3225,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B248">
         <v>2015</v>
@@ -3209,7 +3236,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B249">
         <v>2016</v>
@@ -3220,7 +3247,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B250">
         <v>2017</v>
@@ -3231,7 +3258,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B251">
         <v>2018</v>
@@ -3242,7 +3269,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B252">
         <v>2019</v>
@@ -3253,7 +3280,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B253">
         <v>2020</v>
@@ -3264,7 +3291,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B254">
         <v>2021</v>
@@ -3275,7 +3302,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B255">
         <v>2011</v>
@@ -3286,7 +3313,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B256">
         <v>2012</v>
@@ -3297,7 +3324,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B257">
         <v>2013</v>
@@ -3308,7 +3335,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B258">
         <v>2014</v>
@@ -3319,7 +3346,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B259">
         <v>2015</v>
@@ -3330,7 +3357,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B260">
         <v>2016</v>
@@ -3341,7 +3368,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B261">
         <v>2017</v>
@@ -3352,7 +3379,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B262">
         <v>2018</v>
@@ -3363,7 +3390,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B263">
         <v>2019</v>
@@ -3374,7 +3401,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B264">
         <v>2020</v>
@@ -3385,7 +3412,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B265">
         <v>2021</v>
@@ -3396,7 +3423,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B266">
         <v>2011</v>
@@ -3407,7 +3434,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B267">
         <v>2012</v>
@@ -3418,7 +3445,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B268">
         <v>2013</v>
@@ -3429,7 +3456,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B269">
         <v>2014</v>
@@ -3440,7 +3467,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B270">
         <v>2015</v>
@@ -3451,7 +3478,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B271">
         <v>2016</v>
@@ -3462,7 +3489,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B272">
         <v>2017</v>
@@ -3473,7 +3500,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B273">
         <v>2018</v>
@@ -3484,7 +3511,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B274">
         <v>2019</v>
@@ -3495,7 +3522,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B275">
         <v>2020</v>
@@ -3506,7 +3533,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B276">
         <v>2021</v>
@@ -3517,7 +3544,7 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B277">
         <v>2011</v>
@@ -3528,7 +3555,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B278">
         <v>2012</v>
@@ -3539,7 +3566,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B279">
         <v>2013</v>
@@ -3550,7 +3577,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B280">
         <v>2014</v>
@@ -3561,7 +3588,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B281">
         <v>2015</v>
@@ -3572,7 +3599,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B282">
         <v>2016</v>
@@ -3583,7 +3610,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B283">
         <v>2017</v>
@@ -3594,7 +3621,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B284">
         <v>2018</v>
@@ -3605,7 +3632,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B285">
         <v>2019</v>
@@ -3616,7 +3643,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B286">
         <v>2020</v>
@@ -3627,7 +3654,7 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B287">
         <v>2021</v>
@@ -3638,7 +3665,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B288">
         <v>2011</v>
@@ -3649,7 +3676,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B289">
         <v>2012</v>
@@ -3660,7 +3687,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B290">
         <v>2013</v>
@@ -3671,7 +3698,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B291">
         <v>2014</v>
@@ -3682,7 +3709,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B292">
         <v>2015</v>
@@ -3693,7 +3720,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B293">
         <v>2016</v>
@@ -3704,7 +3731,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B294">
         <v>2017</v>
@@ -3715,7 +3742,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B295">
         <v>2018</v>
@@ -3726,7 +3753,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B296">
         <v>2019</v>
@@ -3737,7 +3764,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B297">
         <v>2020</v>
@@ -3748,7 +3775,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B298">
         <v>2021</v>
@@ -3759,7 +3786,7 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B299">
         <v>2011</v>
@@ -3770,7 +3797,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B300">
         <v>2012</v>
@@ -3781,7 +3808,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B301">
         <v>2013</v>
@@ -3792,7 +3819,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B302">
         <v>2014</v>
@@ -3803,7 +3830,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B303">
         <v>2015</v>
@@ -3814,7 +3841,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B304">
         <v>2016</v>
@@ -3825,7 +3852,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B305">
         <v>2017</v>
@@ -3836,7 +3863,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B306">
         <v>2018</v>
@@ -3847,7 +3874,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B307">
         <v>2019</v>
@@ -3858,7 +3885,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B308">
         <v>2020</v>
@@ -3869,7 +3896,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B309">
         <v>2021</v>
@@ -3880,7 +3907,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B310">
         <v>2011</v>
@@ -3891,7 +3918,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B311">
         <v>2012</v>
@@ -3902,7 +3929,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B312">
         <v>2013</v>
@@ -3913,7 +3940,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B313">
         <v>2014</v>
@@ -3924,7 +3951,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B314">
         <v>2015</v>
@@ -3935,7 +3962,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B315">
         <v>2016</v>
@@ -3946,7 +3973,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B316">
         <v>2017</v>
@@ -3957,7 +3984,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B317">
         <v>2018</v>
@@ -3968,7 +3995,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B318">
         <v>2019</v>
@@ -3979,7 +4006,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B319">
         <v>2020</v>
@@ -3990,7 +4017,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B320">
         <v>2021</v>
@@ -4001,7 +4028,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B321">
         <v>2011</v>
@@ -4012,7 +4039,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B322">
         <v>2012</v>
@@ -4023,7 +4050,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B323">
         <v>2013</v>
@@ -4034,7 +4061,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B324">
         <v>2014</v>
@@ -4045,7 +4072,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B325">
         <v>2015</v>
@@ -4056,7 +4083,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B326">
         <v>2016</v>
@@ -4067,7 +4094,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B327">
         <v>2017</v>
@@ -4078,7 +4105,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B328">
         <v>2018</v>
@@ -4089,7 +4116,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B329">
         <v>2019</v>
@@ -4100,7 +4127,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B330">
         <v>2020</v>
@@ -4111,7 +4138,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B331">
         <v>2021</v>
@@ -4122,7 +4149,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B332">
         <v>2011</v>
@@ -4133,7 +4160,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B333">
         <v>2012</v>
@@ -4144,7 +4171,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B334">
         <v>2013</v>
@@ -4155,7 +4182,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B335">
         <v>2014</v>
@@ -4166,7 +4193,7 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B336">
         <v>2015</v>
@@ -4177,7 +4204,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B337">
         <v>2016</v>
@@ -4188,7 +4215,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B338">
         <v>2017</v>
@@ -4199,7 +4226,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B339">
         <v>2018</v>
@@ -4210,7 +4237,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B340">
         <v>2019</v>
@@ -4221,7 +4248,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B341">
         <v>2020</v>
@@ -4232,7 +4259,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B342">
         <v>2021</v>
@@ -4242,6 +4269,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>